--- a/data/trans_dic/P30_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P30_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que no consume fruta diariamente</t>
+          <t>Población que no consume fruta diariamente (tasa de respuesta: 99,88%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +596,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>21,41%</t>
+          <t>21,47%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>22,98%</t>
+          <t>22,77%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>23,49%</t>
+          <t>23,69%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>24,71%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>27,98%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>16,42%</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>20,48%</t>
+          <t>32,9%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>16,86%</t>
+          <t>16,45%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
+          <t>20,49%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>17,01%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>20,04%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
           <t>25,53%</t>
         </is>
       </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>18,8%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>21,66%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>20,01%</t>
-        </is>
-      </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
+          <t>26,6%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>18,84%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>21,57%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>20,18%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>22,27%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
           <t>26,73%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>29,7%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>18,2; 24,74</t>
+          <t>17,89; 25,14</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>19,85; 26,49</t>
+          <t>19,42; 26,17</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>20,08; 27,49</t>
+          <t>20,25; 27,69</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>24,79; 31,58</t>
+          <t>20,99; 29,23</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>13,62; 19,36</t>
+          <t>24,69; 31,53</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>17,98; 23,51</t>
+          <t>29,29; 36,83</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>14,47; 19,85</t>
+          <t>13,99; 19,66</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>22,91; 28,78</t>
+          <t>17,77; 23,41</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>16,61; 21,09</t>
+          <t>14,13; 19,46</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>19,44; 23,91</t>
+          <t>16,96; 23,47</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>18,04; 22,43</t>
+          <t>22,7; 28,58</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>24,58; 29,08</t>
+          <t>23,68; 29,88</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>16,58; 21,15</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>19,46; 23,84</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>17,95; 22,71</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>19,8; 25,19</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>24,45; 29,13</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>27,4; 32,42</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>21,76%</t>
+          <t>20,24%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>24,4%</t>
+          <t>23,64%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>23,01%</t>
+          <t>22,64%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>20,44%</t>
+          <t>24,51%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>19,23%</t>
+          <t>20,45%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>19,57%</t>
+          <t>29,59%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>17,16%</t>
+          <t>19,35%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
+          <t>19,4%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>17,32%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>20,48%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
           <t>26,29%</t>
         </is>
       </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>20,48%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>21,99%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>20,08%</t>
-        </is>
-      </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
+          <t>20,52%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>19,79%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>21,53%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>19,97%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>22,49%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
           <t>23,22%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>25,26%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>16,63; 28,16</t>
+          <t>16,09; 25,67</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>20,27; 30,37</t>
+          <t>19,57; 28,94</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>19,17; 27,62</t>
+          <t>18,63; 27,69</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>15,22; 26,87</t>
+          <t>20,42; 29,59</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>15,68; 23,29</t>
+          <t>15,07; 27,14</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>16,45; 23,44</t>
+          <t>23,73; 35,71</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>13,96; 21,43</t>
+          <t>15,63; 23,43</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>20,16; 33,33</t>
+          <t>16,22; 22,92</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>17,34; 24,08</t>
+          <t>14,01; 22,29</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>19,43; 25,19</t>
+          <t>16,36; 26,19</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>17,51; 23,13</t>
+          <t>20,21; 33,5</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>19,06; 28,09</t>
+          <t>15,62; 26,57</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>17,0; 22,92</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>18,73; 24,35</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>17,49; 23,06</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>19,57; 26,43</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>19,31; 28,02</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>21,15; 29,29</t>
         </is>
       </c>
     </row>
@@ -936,60 +1105,90 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>16,38%</t>
+          <t>17,04%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>17,41%</t>
+          <t>17,03%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>15,51%</t>
+          <t>15,32%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>30,22%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>13,73%</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>18,19%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>14,82%</t>
+          <t>14,59%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
+          <t>18,0%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>14,68%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>17,37%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>15,07%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>17,79%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>15,16%</t>
-        </is>
-      </c>
       <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>15,83%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>17,5%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>15,0%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>23,9%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1004,60 +1203,90 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>10,73; 24,31</t>
+          <t>10,69; 24,96</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>10,6; 24,98</t>
+          <t>11,39; 24,77</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>10,61; 23,32</t>
+          <t>10,46; 21,76</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>20,53; 42,1</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>8,49; 20,37</t>
-        </is>
-      </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>12,84; 25,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>9,87; 21,31</t>
+          <t>9,26; 21,84</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
+          <t>12,45; 24,59</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>9,67; 20,59</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>11,29; 24,82</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>10,9; 20,04</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>14,11; 22,86</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>11,86; 19,97</t>
-        </is>
-      </c>
       <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>11,53; 20,99</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>13,23; 22,06</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>11,06; 19,17</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>18,35; 31,47</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>20,93%</t>
+          <t>20,43%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>22,86%</t>
+          <t>22,41%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>22,32%</t>
+          <t>22,25%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>25,3%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>26,17%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>17,19%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>19,88%</t>
+          <t>32,1%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>16,74%</t>
+          <t>17,35%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
+          <t>19,8%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>16,86%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>19,91%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
           <t>25,7%</t>
         </is>
       </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>19,02%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>21,33%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>19,47%</t>
-        </is>
-      </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
+          <t>25,25%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>18,86%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>21,07%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>19,49%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>22,55%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
           <t>25,93%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>28,67%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1403,1519 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>18,33; 24,21</t>
+          <t>18,04; 23,47</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>20,36; 25,46</t>
+          <t>19,95; 25,01</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>19,63; 25,09</t>
+          <t>19,7; 25,13</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>23,22; 29,37</t>
+          <t>22,49; 28,66</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>15,11; 19,29</t>
+          <t>22,94; 29,23</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>17,85; 22,01</t>
+          <t>28,85; 35,44</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>14,92; 18,89</t>
+          <t>15,35; 19,63</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>23,07; 28,72</t>
+          <t>17,89; 21,76</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>17,51; 21,08</t>
+          <t>14,96; 19,37</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>19,78; 23,19</t>
+          <t>17,64; 22,61</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>17,97; 21,29</t>
+          <t>23,13; 28,64</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>23,99; 28,08</t>
+          <t>22,9; 28,25</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>17,22; 20,67</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>19,44; 22,67</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>18,07; 21,39</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>20,46; 24,49</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>23,96; 28,08</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>26,69; 31,15</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que no consume fruta diariamente (tasa de respuesta: 99,88%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>130.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>158.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>153.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>189.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>209.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>113.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>171.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>145.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>139.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>236.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>235.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>243.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>329.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>298.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>267.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>425.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>444.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>354241</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>372591</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>389140</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>405529</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>63662</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>74989</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>297131</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>374823</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>309323</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>359246</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>60682</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>62515</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>651371</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>747414</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>698464</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>764775</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>124344</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>137504</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>295234; 414729</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>317701; 428108</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>332645; 454845</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>344510; 479787</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>56182; 71759</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>66748; 83953</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>252714; 355277</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>324918; 428221</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>257037; 353831</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>304022; 420777</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>53944; 67914</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>55660; 70225</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>573151; 731214</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>674145; 826171</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>621488; 786138</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>680069; 865115</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>113760; 135535</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>126827; 150085</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>111.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>108.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>101.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>117.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>94.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>168.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>228.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>204.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>195.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>104.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>120.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>277548</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>325441</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>312213</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>338897</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>14731</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>21612</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>269217</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>265901</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>239331</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>285134</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>17146</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>13734</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>546765</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>591342</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>551545</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>624031</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>31877</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>35346</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>220703; 352142</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>269411; 398447</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>256940; 381881</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>282394; 409212</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>10858; 19547</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>17333; 26079</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>217445; 325996</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>222217; 314035</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>193591; 308021</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>227854; 364716</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>13182; 21849</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>10451; 17784</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>469719; 633415</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>514646; 668867</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>482872; 636631</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>543061; 733447</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>26507; 38463</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>29598; 40992</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>72046</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>71996</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>64258</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>127788</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>60105</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>73421</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>60454</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>71059</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>132152</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>145417</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>124712</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>198846</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>45185; 105531</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>48172; 104729</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>43856; 91277</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>86800; 178018</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>38152; 89957</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>50790; 100303</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>39818; 84790</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>46178; 101522</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>96207; 175211</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>109868; 183242</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>91925; 159398</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>152675; 261815</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>230.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>294.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>285.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>257.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>234.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>282.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>221.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>318.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>266.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>254.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>295.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>282.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>451.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>612.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>551.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>511.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>529.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>564.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>703836</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>770028</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>765612</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>872213</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>78393</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>96601</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>626453</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>714145</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>609109</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>715439</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>77827</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>76249</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>1330288</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>1484173</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>1374720</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>1587652</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>156220</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>172850</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>621200; 808362</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>685283; 859419</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>678057; 864717</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>775279; 987861</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>68728; 87582</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>86815; 106653</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>554081; 708806</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>645487; 785020</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>540398; 699920</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>633898; 812649</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>70047; 86751</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>69135; 85303</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>1214704; 1458325</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>1368969; 1596806</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>1274858; 1508665</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>1440695; 1724528</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>144328; 169195</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>160886; 187821</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
